--- a/release/figures/SBharadwaj_20240318_Sample_3_6_09_output_MoMFs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_09_output_MoMFs_seurat_clusters_speed_coherence.xlsx
@@ -478,7 +478,7 @@
         <v>0.4752077162265778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4605584144592285</v>
+        <v>0.4605286717414856</v>
       </c>
       <c r="D2" t="n">
         <v>0.5415442585945129</v>
@@ -493,7 +493,7 @@
         <v>0.5139934420585632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.403026819229126</v>
+        <v>0.4030651152133942</v>
       </c>
       <c r="I2" t="n">
         <v>0.4965702295303345</v>
@@ -505,7 +505,7 @@
         <v>0.435205489397049</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3720833361148834</v>
+        <v>0.3724999725818634</v>
       </c>
     </row>
     <row r="3">
@@ -515,37 +515,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6701674952008693</v>
+        <v>0.670175031238085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8220145452548476</v>
+        <v>0.8220246154606919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6447237425197877</v>
+        <v>0.6447269009345556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9446033964014502</v>
+        <v>0.9446028885345851</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7580252361054942</v>
+        <v>0.7581108063838561</v>
       </c>
       <c r="G3" t="n">
-        <v>0.819828155459744</v>
+        <v>0.8198277899140965</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6714212537896588</v>
+        <v>0.6714333802875545</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8389125130146988</v>
+        <v>0.8389191080716031</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7461902177109655</v>
+        <v>0.746196753304221</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9022746906705099</v>
+        <v>0.9022738182381408</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8494642923275629</v>
+        <v>0.849497544268767</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_09_output_MoMFs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_09_output_MoMFs_seurat_clusters_speed_coherence.xlsx
@@ -434,38 +434,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -475,13 +497,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4752077162265778</v>
+        <v>0.4752151668071747</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4605286717414856</v>
+        <v>0.4605361223220825</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5415442585945129</v>
+        <v>0.5414971709251404</v>
       </c>
       <c r="E2" t="n">
         <v>0.9628308415412903</v>
@@ -493,13 +515,13 @@
         <v>0.5139934420585632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4030651152133942</v>
+        <v>0.4031034409999847</v>
       </c>
       <c r="I2" t="n">
         <v>0.4965702295303345</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5041593313217163</v>
+        <v>0.5040707588195801</v>
       </c>
       <c r="K2" t="n">
         <v>0.435205489397049</v>
@@ -515,37 +537,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.670175031238085</v>
+        <v>0.6699863555506065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8220246154606919</v>
+        <v>0.8220273897340292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6447269009345556</v>
+        <v>0.6447013425807383</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9446028885345851</v>
+        <v>0.9446042830133071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7581108063838561</v>
+        <v>0.7581021871237658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8198277899140965</v>
+        <v>0.8198069197805015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6714333802875545</v>
+        <v>0.6713671962163229</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8389191080716031</v>
+        <v>0.8389216411458559</v>
       </c>
       <c r="J3" t="n">
-        <v>0.746196753304221</v>
+        <v>0.7461769641500658</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9022738182381408</v>
+        <v>0.9022752026172534</v>
       </c>
       <c r="L3" t="n">
-        <v>0.849497544268767</v>
+        <v>0.8494884024063746</v>
       </c>
     </row>
   </sheetData>
